--- a/___Statistical_Thinking_II_-Notas___/lab4/Tarea_4.xlsx
+++ b/___Statistical_Thinking_II_-Notas___/lab4/Tarea_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\4_Semestre-[Julio-Noviembre-2020]\____SumaDeCursosUFM2.2____\___Statistical_Thinking_II_-Notas___\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEDE65C-A716-4F5B-8130-D2E8439729FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DAD446-DDE2-4E70-A786-2FDD2F16BF8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="390" windowWidth="14100" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14070" yWindow="660" windowWidth="14100" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D17" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +428,7 @@
         <v>87</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B13" si="0">G3</f>
+        <f t="shared" ref="B3:B10" si="0">G3</f>
         <v>6</v>
       </c>
       <c r="C3">
@@ -807,6 +807,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:I22">
+    <sortCondition ref="I2:I22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>